--- a/Tamil_Nadu_Agri_Sales_Report.xlsx
+++ b/Tamil_Nadu_Agri_Sales_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Sathyam_sales_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="190">
   <si>
     <t>Employee ID</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Advance (INR)</t>
   </si>
 </sst>
 </file>
@@ -926,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,9 +946,10 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -973,8 +977,11 @@
       <c r="I1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1003,8 +1010,11 @@
       <c r="I2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1033,8 +1043,11 @@
       <c r="I3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1054,17 +1067,20 @@
         <v>4544</v>
       </c>
       <c r="G4">
-        <v>2443</v>
+        <v>1770</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>6987</v>
+        <v>6314</v>
       </c>
       <c r="I4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="I5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1123,8 +1142,11 @@
       <c r="I6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1153,8 +1175,11 @@
       <c r="I7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1183,8 +1208,11 @@
       <c r="I8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1213,8 +1241,11 @@
       <c r="I9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1243,8 +1274,11 @@
       <c r="I10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1273,8 +1307,11 @@
       <c r="I11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="I12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1333,8 +1373,11 @@
       <c r="I13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1363,8 +1406,11 @@
       <c r="I14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1393,8 +1439,11 @@
       <c r="I15" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1423,8 +1472,11 @@
       <c r="I16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1453,8 +1505,11 @@
       <c r="I17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1483,8 +1538,11 @@
       <c r="I18" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="I19" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1543,8 +1604,11 @@
       <c r="I20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1573,8 +1637,11 @@
       <c r="I21" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1603,8 +1670,11 @@
       <c r="I22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1633,8 +1703,11 @@
       <c r="I23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1663,8 +1736,11 @@
       <c r="I24" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1693,8 +1769,11 @@
       <c r="I25" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1723,8 +1802,11 @@
       <c r="I26" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1753,8 +1835,11 @@
       <c r="I27" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1783,8 +1868,11 @@
       <c r="I28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1813,8 +1901,11 @@
       <c r="I29" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1843,8 +1934,11 @@
       <c r="I30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1873,8 +1967,11 @@
       <c r="I31" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1903,8 +2000,11 @@
       <c r="I32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1933,8 +2033,11 @@
       <c r="I33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1963,8 +2066,11 @@
       <c r="I34" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1993,8 +2099,11 @@
       <c r="I35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2023,8 +2132,11 @@
       <c r="I36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2053,8 +2165,11 @@
       <c r="I37" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2083,8 +2198,11 @@
       <c r="I38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2113,8 +2231,11 @@
       <c r="I39" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2143,8 +2264,11 @@
       <c r="I40" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2173,8 +2297,11 @@
       <c r="I41" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2203,8 +2330,11 @@
       <c r="I42" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2233,8 +2363,11 @@
       <c r="I43" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2263,8 +2396,11 @@
       <c r="I44" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2293,8 +2429,11 @@
       <c r="I45" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2323,8 +2462,11 @@
       <c r="I46" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2353,8 +2495,11 @@
       <c r="I47" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2383,8 +2528,11 @@
       <c r="I48" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2413,8 +2561,11 @@
       <c r="I49" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2443,8 +2594,11 @@
       <c r="I50" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2473,8 +2627,11 @@
       <c r="I51" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2503,8 +2660,11 @@
       <c r="I52" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2533,8 +2693,11 @@
       <c r="I53" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2563,8 +2726,11 @@
       <c r="I54" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2593,8 +2759,11 @@
       <c r="I55" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2623,8 +2792,11 @@
       <c r="I56" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2653,8 +2825,11 @@
       <c r="I57" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2683,8 +2858,11 @@
       <c r="I58" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2713,8 +2891,11 @@
       <c r="I59" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2743,8 +2924,11 @@
       <c r="I60" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2773,8 +2957,11 @@
       <c r="I61" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2803,8 +2990,11 @@
       <c r="I62" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2833,8 +3023,11 @@
       <c r="I63" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2863,8 +3056,11 @@
       <c r="I64" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2893,8 +3089,11 @@
       <c r="I65" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2923,8 +3122,11 @@
       <c r="I66" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2953,8 +3155,11 @@
       <c r="I67" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2983,8 +3188,11 @@
       <c r="I68" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3013,8 +3221,11 @@
       <c r="I69" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3043,8 +3254,11 @@
       <c r="I70" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3073,8 +3287,11 @@
       <c r="I71" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3103,8 +3320,11 @@
       <c r="I72" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3133,8 +3353,11 @@
       <c r="I73" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3163,8 +3386,11 @@
       <c r="I74" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3193,8 +3419,11 @@
       <c r="I75" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3223,8 +3452,11 @@
       <c r="I76" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3253,8 +3485,11 @@
       <c r="I77" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3283,8 +3518,11 @@
       <c r="I78" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3313,8 +3551,11 @@
       <c r="I79" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3343,8 +3584,11 @@
       <c r="I80" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3373,8 +3617,11 @@
       <c r="I81" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3403,8 +3650,11 @@
       <c r="I82" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3433,8 +3683,11 @@
       <c r="I83" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3463,8 +3716,11 @@
       <c r="I84" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3493,8 +3749,11 @@
       <c r="I85" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3523,8 +3782,11 @@
       <c r="I86" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3553,8 +3815,11 @@
       <c r="I87" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3583,8 +3848,11 @@
       <c r="I88" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3613,8 +3881,11 @@
       <c r="I89" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3643,8 +3914,11 @@
       <c r="I90" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3673,8 +3947,11 @@
       <c r="I91" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3703,8 +3980,11 @@
       <c r="I92" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3733,8 +4013,11 @@
       <c r="I93" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3763,8 +4046,11 @@
       <c r="I94" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3793,8 +4079,11 @@
       <c r="I95" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3823,8 +4112,11 @@
       <c r="I96" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3853,8 +4145,11 @@
       <c r="I97" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3883,8 +4178,11 @@
       <c r="I98" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3913,8 +4211,11 @@
       <c r="I99" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3943,8 +4244,11 @@
       <c r="I100" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3973,8 +4277,11 @@
       <c r="I101" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4003,8 +4310,11 @@
       <c r="I102" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4033,8 +4343,11 @@
       <c r="I103" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4063,8 +4376,11 @@
       <c r="I104" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4093,8 +4409,11 @@
       <c r="I105" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4123,8 +4442,11 @@
       <c r="I106" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4153,8 +4475,11 @@
       <c r="I107" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4183,8 +4508,11 @@
       <c r="I108" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4213,8 +4541,11 @@
       <c r="I109" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4243,8 +4574,11 @@
       <c r="I110" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4273,8 +4607,11 @@
       <c r="I111" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4303,8 +4640,11 @@
       <c r="I112" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4333,8 +4673,11 @@
       <c r="I113" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4363,8 +4706,11 @@
       <c r="I114" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4393,8 +4739,11 @@
       <c r="I115" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4423,8 +4772,11 @@
       <c r="I116" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4453,8 +4805,11 @@
       <c r="I117" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4483,8 +4838,11 @@
       <c r="I118" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4513,8 +4871,11 @@
       <c r="I119" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4543,8 +4904,11 @@
       <c r="I120" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4573,8 +4937,11 @@
       <c r="I121" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4603,8 +4970,11 @@
       <c r="I122" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4633,8 +5003,11 @@
       <c r="I123" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4663,8 +5036,11 @@
       <c r="I124" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4693,8 +5069,11 @@
       <c r="I125" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4723,8 +5102,11 @@
       <c r="I126" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4753,8 +5135,11 @@
       <c r="I127" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4783,8 +5168,11 @@
       <c r="I128" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4813,8 +5201,11 @@
       <c r="I129" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4843,8 +5234,11 @@
       <c r="I130" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4873,8 +5267,11 @@
       <c r="I131" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4903,8 +5300,11 @@
       <c r="I132" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4933,8 +5333,11 @@
       <c r="I133" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4963,8 +5366,11 @@
       <c r="I134" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4993,8 +5399,11 @@
       <c r="I135" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5023,8 +5432,11 @@
       <c r="I136" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5053,8 +5465,11 @@
       <c r="I137" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5083,8 +5498,11 @@
       <c r="I138" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5113,8 +5531,11 @@
       <c r="I139" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5143,8 +5564,11 @@
       <c r="I140" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5173,8 +5597,11 @@
       <c r="I141" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5203,8 +5630,11 @@
       <c r="I142" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5233,8 +5663,11 @@
       <c r="I143" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5263,8 +5696,11 @@
       <c r="I144" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5293,8 +5729,11 @@
       <c r="I145" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5323,8 +5762,11 @@
       <c r="I146" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5353,8 +5795,11 @@
       <c r="I147" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5383,8 +5828,11 @@
       <c r="I148" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5413,8 +5861,11 @@
       <c r="I149" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5443,8 +5894,11 @@
       <c r="I150" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5473,8 +5927,11 @@
       <c r="I151" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5503,8 +5960,11 @@
       <c r="I152" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5533,8 +5993,11 @@
       <c r="I153" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5563,8 +6026,11 @@
       <c r="I154" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5593,8 +6059,11 @@
       <c r="I155" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5623,8 +6092,11 @@
       <c r="I156" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5653,8 +6125,11 @@
       <c r="I157" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5683,8 +6158,11 @@
       <c r="I158" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5713,8 +6191,11 @@
       <c r="I159" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5743,8 +6224,11 @@
       <c r="I160" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5772,6 +6256,9 @@
       </c>
       <c r="I161" t="s">
         <v>187</v>
+      </c>
+      <c r="J161">
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
